--- a/biology/Botanique/Annona_muricata/Annona_muricata.xlsx
+++ b/biology/Botanique/Annona_muricata/Annona_muricata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Corossolier, Annona muricata, est une espèce de petit arbre de la famille des Annonaceae, originaire du nord de l'Amérique du Sud, cultivé dans les régions tropicales pour son fruit comestible, le corossol. Le terme « corossol » est aussi utilisé pour désigner l'arbre.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est aussi appelé Annona macrocarpa auct.
 </t>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corossolier[1] est un arbuste ou petit arbre de 3 à 10 m de hauteur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corossolier est un arbuste ou petit arbre de 3 à 10 m de hauteur.
 Les feuilles, d'un vert brillant, sont oblongues-lancéolées, de 10-17 × 2-7 cm, les jeunes à pubescence ferrugineuse en dessous.
 			Vue d'ensemble d'un arbre, aux Philippines
 			Fleur de corossol sur l'arbre
@@ -586,6 +602,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -611,7 +629,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corossolier est exclusivement originaire des forêts tropicales : Caraïbe, Amérique Centrale et du Sud, mais il est très abondant en forêt amazonienne, principalement au Brésil et au Pérou, où on le cultive.
 </t>
@@ -642,7 +662,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corossolier tolère les sols pauvres mais ne supporte pas les basses températures.
 C'est une espèce allogame à hermaphrodisme successif (dichogamie).
@@ -679,8 +701,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toxicité
-Une forte prévalence de syndromes parkinsoniens atypiques dans les Caraïbes a cependant été reliée à la consommation d'infusions de feuilles d'annonacées (Annona muricata et Annona squamosa). Les graines et les feuilles de ces plantes contiennent en effet des acétogénines et des alcaloïdes qui pourraient représenter les composés neurotoxiques impliqués dans ces maladies (Caparros-Lefebvre et coll., 2006[2])
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une forte prévalence de syndromes parkinsoniens atypiques dans les Caraïbes a cependant été reliée à la consommation d'infusions de feuilles d'annonacées (Annona muricata et Annona squamosa). Les graines et les feuilles de ces plantes contiennent en effet des acétogénines et des alcaloïdes qui pourraient représenter les composés neurotoxiques impliqués dans ces maladies (Caparros-Lefebvre et coll., 2006)
 </t>
         </is>
       </c>
@@ -709,11 +736,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit, appelé corossol, est comestible.
 Au Brésil et au Pérou de nombreuses industries exploitent essentiellement son fruit, mais aussi les autres parties de la plantes. On le trouve ainsi sous forme de fruit, jus, glaces, yaourt, confitures, thé...
-Dans toute la Caraïbe, le bain des feuilles[3] est traditionnellement utilisé pour calmer les nourrissons.
+Dans toute la Caraïbe, le bain des feuilles est traditionnellement utilisé pour calmer les nourrissons.
 L'infusions des feuilles est utilisée chez l'adulte comme somnifère et comme sédatif. Elle est également réputée stomachique et antispasmodique.
 En usage externe, des cataplasmes de feuilles sont appliqués sur les brûlures occasionnées par les coups de soleil.
 </t>
